--- a/Crawling/music/crawled_data/mod_bugs/live_bugs_20220518_110800.xlsx
+++ b/Crawling/music/crawled_data/mod_bugs/live_bugs_20220518_110800.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="278">
   <si>
     <t>사이트</t>
   </si>
@@ -778,7 +778,7 @@
     <t>스윙</t>
   </si>
   <si>
-    <t>개인</t>
+    <t>기타</t>
   </si>
   <si>
     <t>MORE VISION</t>
@@ -791,9 +791,6 @@
   </si>
   <si>
     <t>레시피뮤직</t>
-  </si>
-  <si>
-    <t>기타</t>
   </si>
   <si>
     <t>빅히트</t>
@@ -1263,7 +1260,7 @@
         <v>236</v>
       </c>
       <c r="H2" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1315,7 +1312,7 @@
         <v>238</v>
       </c>
       <c r="H4" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1341,7 +1338,7 @@
         <v>239</v>
       </c>
       <c r="H5" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1367,7 +1364,7 @@
         <v>240</v>
       </c>
       <c r="H6" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1393,7 +1390,7 @@
         <v>241</v>
       </c>
       <c r="H7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1419,7 +1416,7 @@
         <v>242</v>
       </c>
       <c r="H8" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1445,7 +1442,7 @@
         <v>243</v>
       </c>
       <c r="H9" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1471,7 +1468,7 @@
         <v>238</v>
       </c>
       <c r="H10" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1497,7 +1494,7 @@
         <v>244</v>
       </c>
       <c r="H11" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1523,7 +1520,7 @@
         <v>245</v>
       </c>
       <c r="H12" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1575,7 +1572,7 @@
         <v>247</v>
       </c>
       <c r="H14" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1601,7 +1598,7 @@
         <v>240</v>
       </c>
       <c r="H15" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1627,7 +1624,7 @@
         <v>238</v>
       </c>
       <c r="H16" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1679,7 +1676,7 @@
         <v>249</v>
       </c>
       <c r="H18" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1705,7 +1702,7 @@
         <v>250</v>
       </c>
       <c r="H19" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1731,7 +1728,7 @@
         <v>251</v>
       </c>
       <c r="H20" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1757,7 +1754,7 @@
         <v>236</v>
       </c>
       <c r="H21" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1783,7 +1780,7 @@
         <v>252</v>
       </c>
       <c r="H22" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1835,7 +1832,7 @@
         <v>239</v>
       </c>
       <c r="H24" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1861,7 +1858,7 @@
         <v>238</v>
       </c>
       <c r="H25" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1887,7 +1884,7 @@
         <v>240</v>
       </c>
       <c r="H26" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1913,7 +1910,7 @@
         <v>254</v>
       </c>
       <c r="H27" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1965,7 +1962,7 @@
         <v>255</v>
       </c>
       <c r="H29" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1991,7 +1988,7 @@
         <v>256</v>
       </c>
       <c r="H30" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2017,7 +2014,7 @@
         <v>238</v>
       </c>
       <c r="H31" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2069,7 +2066,7 @@
         <v>257</v>
       </c>
       <c r="H33" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2147,7 +2144,7 @@
         <v>258</v>
       </c>
       <c r="H36" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2170,10 +2167,10 @@
         <v>198</v>
       </c>
       <c r="G37" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="H37" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2199,7 +2196,7 @@
         <v>254</v>
       </c>
       <c r="H38" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2222,10 +2219,10 @@
         <v>200</v>
       </c>
       <c r="G39" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H39" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2251,7 +2248,7 @@
         <v>240</v>
       </c>
       <c r="H40" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2274,10 +2271,10 @@
         <v>49</v>
       </c>
       <c r="G41" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H41" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2300,10 +2297,10 @@
         <v>50</v>
       </c>
       <c r="G42" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H42" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2329,7 +2326,7 @@
         <v>244</v>
       </c>
       <c r="H43" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2355,7 +2352,7 @@
         <v>247</v>
       </c>
       <c r="H44" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2381,7 +2378,7 @@
         <v>239</v>
       </c>
       <c r="H45" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2404,10 +2401,10 @@
         <v>203</v>
       </c>
       <c r="G46" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="H46" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2433,7 +2430,7 @@
         <v>238</v>
       </c>
       <c r="H47" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2482,10 +2479,10 @@
         <v>206</v>
       </c>
       <c r="G49" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H49" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2511,7 +2508,7 @@
         <v>238</v>
       </c>
       <c r="H50" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2534,10 +2531,10 @@
         <v>207</v>
       </c>
       <c r="G51" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H51" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2560,10 +2557,10 @@
         <v>60</v>
       </c>
       <c r="G52" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H52" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2589,7 +2586,7 @@
         <v>236</v>
       </c>
       <c r="H53" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2612,10 +2609,10 @@
         <v>62</v>
       </c>
       <c r="G54" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H54" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2641,7 +2638,7 @@
         <v>244</v>
       </c>
       <c r="H55" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2667,7 +2664,7 @@
         <v>249</v>
       </c>
       <c r="H56" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2690,10 +2687,10 @@
         <v>208</v>
       </c>
       <c r="G57" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H57" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2719,7 +2716,7 @@
         <v>252</v>
       </c>
       <c r="H58" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2742,10 +2739,10 @@
         <v>209</v>
       </c>
       <c r="G59" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H59" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2768,10 +2765,10 @@
         <v>68</v>
       </c>
       <c r="G60" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H60" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2794,10 +2791,10 @@
         <v>210</v>
       </c>
       <c r="G61" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H61" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2823,7 +2820,7 @@
         <v>257</v>
       </c>
       <c r="H62" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2846,10 +2843,10 @@
         <v>211</v>
       </c>
       <c r="G63" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H63" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2872,10 +2869,10 @@
         <v>212</v>
       </c>
       <c r="G64" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H64" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2901,7 +2898,7 @@
         <v>244</v>
       </c>
       <c r="H65" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2924,10 +2921,10 @@
         <v>213</v>
       </c>
       <c r="G66" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H66" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2950,10 +2947,10 @@
         <v>206</v>
       </c>
       <c r="G67" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H67" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2976,10 +2973,10 @@
         <v>214</v>
       </c>
       <c r="G68" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H68" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3002,10 +2999,10 @@
         <v>206</v>
       </c>
       <c r="G69" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H69" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3054,10 +3051,10 @@
         <v>216</v>
       </c>
       <c r="G71" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H71" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3080,10 +3077,10 @@
         <v>217</v>
       </c>
       <c r="G72" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H72" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3106,10 +3103,10 @@
         <v>206</v>
       </c>
       <c r="G73" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H73" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3132,10 +3129,10 @@
         <v>218</v>
       </c>
       <c r="G74" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H74" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3158,10 +3155,10 @@
         <v>83</v>
       </c>
       <c r="G75" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H75" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3187,7 +3184,7 @@
         <v>252</v>
       </c>
       <c r="H76" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3213,7 +3210,7 @@
         <v>252</v>
       </c>
       <c r="H77" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3239,7 +3236,7 @@
         <v>252</v>
       </c>
       <c r="H78" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3288,10 +3285,10 @@
         <v>88</v>
       </c>
       <c r="G80" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="H80" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3317,7 +3314,7 @@
         <v>252</v>
       </c>
       <c r="H81" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3340,10 +3337,10 @@
         <v>90</v>
       </c>
       <c r="G82" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H82" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3366,10 +3363,10 @@
         <v>222</v>
       </c>
       <c r="G83" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H83" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3395,7 +3392,7 @@
         <v>252</v>
       </c>
       <c r="H84" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3421,7 +3418,7 @@
         <v>249</v>
       </c>
       <c r="H85" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3447,7 +3444,7 @@
         <v>252</v>
       </c>
       <c r="H86" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3473,7 +3470,7 @@
         <v>252</v>
       </c>
       <c r="H87" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3499,7 +3496,7 @@
         <v>244</v>
       </c>
       <c r="H88" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3525,7 +3522,7 @@
         <v>252</v>
       </c>
       <c r="H89" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3551,7 +3548,7 @@
         <v>252</v>
       </c>
       <c r="H90" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3603,7 +3600,7 @@
         <v>254</v>
       </c>
       <c r="H92" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3629,7 +3626,7 @@
         <v>252</v>
       </c>
       <c r="H93" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3655,7 +3652,7 @@
         <v>252</v>
       </c>
       <c r="H94" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3678,10 +3675,10 @@
         <v>231</v>
       </c>
       <c r="G95" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H95" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3704,10 +3701,10 @@
         <v>232</v>
       </c>
       <c r="G96" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H96" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3730,10 +3727,10 @@
         <v>233</v>
       </c>
       <c r="G97" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="H97" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3759,7 +3756,7 @@
         <v>252</v>
       </c>
       <c r="H98" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3782,10 +3779,10 @@
         <v>234</v>
       </c>
       <c r="G99" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H99" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3808,10 +3805,10 @@
         <v>235</v>
       </c>
       <c r="G100" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H100" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3837,7 +3834,7 @@
         <v>252</v>
       </c>
       <c r="H101" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
